--- a/planilhas/notebooks.xlsx
+++ b/planilhas/notebooks.xlsx
@@ -413,14 +413,71 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>13ª geração Intel® Core™ i7-13650HX</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Windows 11 Home Single Language</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NVIDIA® GeForce® RTX™ 4050, 6GB GDDR6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16GB DDR5 (2x8GB) 4800MT/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SSD de 512GB PCIe NVMe M.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Full HD de 15.6 (1920 x 1080), 120Hz, 250 nits</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dark Shadow Gray - Grafite</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Teclado retroiluminado na cor laranja, numérico e em português</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>